--- a/server-res/excel/Cfg_Task.xlsx
+++ b/server-res/excel/Cfg_Task.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="253"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
-  <si>
-    <t>uint32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +106,6 @@
   </si>
   <si>
     <t>scriptid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,6 +244,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -298,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+      <selection activeCell="Q2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -574,274 +570,275 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AC2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
+      <c r="A3">
+        <v>1000001</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>15001</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>500000000+A3</f>
+        <v>501000001</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1000001</v>
+        <v>1000002</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -868,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15001</v>
       </c>
       <c r="K4">
-        <v>15001</v>
+        <v>15002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -925,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>500000000+A4</f>
-        <v>501000001</v>
+        <f t="shared" ref="AC4:AC8" si="0">500000000+A4</f>
+        <v>501000002</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1000002</v>
+        <v>1000003</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -940,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -949,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1000001</v>
+        <v>1000002</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -958,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15001</v>
+        <v>15002</v>
       </c>
       <c r="K5">
-        <v>15002</v>
+        <v>15003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1015,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC9" si="0">500000000+A5</f>
-        <v>501000002</v>
+        <f t="shared" si="0"/>
+        <v>501000003</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1000003</v>
+        <v>2000001</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -1042,22 +1039,22 @@
         <v>1000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>15002</v>
+        <v>15005</v>
       </c>
       <c r="K6">
-        <v>15003</v>
+        <v>15005</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1106,39 +1103,39 @@
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>501000003</v>
+        <v>502000001</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2000001</v>
+        <v>3000011</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1000002</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15005</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>15005</v>
@@ -1159,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>110001</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1196,12 +1193,12 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>502000001</v>
+        <v>503000011</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>3000011</v>
+        <v>3000012</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1210,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -1252,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="R8">
-        <v>110001</v>
+        <v>110002</v>
       </c>
       <c r="S8">
         <v>50</v>
@@ -1285,96 +1282,6 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>503000011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>3000012</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>15005</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1500</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>110002</v>
-      </c>
-      <c r="S9">
-        <v>50</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
         <f t="shared" si="0"/>
         <v>503000012</v>
       </c>

--- a/server-res/excel/Cfg_Task.xlsx
+++ b/server-res/excel/Cfg_Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,52 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>award_itemtype</t>
-  </si>
-  <si>
-    <t>award_itemflag</t>
-  </si>
-  <si>
-    <t>award_itemamount</t>
-  </si>
-  <si>
-    <t>finish1_type</t>
-  </si>
-  <si>
-    <t>finish2_type</t>
-  </si>
-  <si>
-    <t>finish3_type</t>
-  </si>
-  <si>
-    <t>finish4_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish1_data</t>
-  </si>
-  <si>
-    <t>finish1_num</t>
-  </si>
-  <si>
-    <t>finish2_data</t>
-  </si>
-  <si>
-    <t>finish2_amount</t>
-  </si>
-  <si>
-    <t>finish3_data</t>
-  </si>
-  <si>
-    <t>finish3_amount</t>
-  </si>
-  <si>
-    <t>finish4_data</t>
-  </si>
-  <si>
-    <t>finish4_amount</t>
-  </si>
-  <si>
     <t>scriptid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,44 +113,156 @@
     <t>奖励经验</t>
   </si>
   <si>
+    <t>任务完成条件类型</t>
+  </si>
+  <si>
+    <t>脚本编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环任务1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环任务2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_item_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奖励物品类型</t>
-  </si>
-  <si>
-    <t>奖励物品掩码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物品数量</t>
-  </si>
-  <si>
-    <t>任务完成条件类型</t>
-  </si>
-  <si>
-    <t>完成需要数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成条件值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环任务1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环任务2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"itemtype":100071, "itemflag":0, "itemamount":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_data_list[0].finish_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_data_list[0].finish_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几率</t>
+  </si>
+  <si>
+    <t>是否允许共享</t>
+  </si>
+  <si>
+    <t>描述文字</t>
+  </si>
+  <si>
+    <t>finish_data_list[0].finish_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_data_list[0].rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_data_list[0].share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_data_list[0].desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept_txt</t>
+  </si>
+  <si>
+    <t>doing_txt</t>
+  </si>
+  <si>
+    <t>submit_txt</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>接取任务时的文本</t>
+  </si>
+  <si>
+    <t>正在处理时的文本</t>
+  </si>
+  <si>
+    <t>可以提交时的文本</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +276,25 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,8 +317,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,25 +644,23 @@
     <col min="2" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5" customWidth="1"/>
+    <col min="16" max="16" width="30.875" customWidth="1"/>
+    <col min="17" max="17" width="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
+    <col min="22" max="24" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,141 +704,117 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1000001</v>
       </c>
@@ -757,15 +825,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
@@ -787,10 +852,11 @@
         <v>100</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+        <f t="shared" ref="N3:N8" si="0">500000000+A3</f>
+        <v>501000001</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -810,33 +876,8 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f>500000000+A3</f>
-        <v>501000001</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1000002</v>
       </c>
@@ -847,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,10 +918,8 @@
         <v>100</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>501000002</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -900,33 +939,8 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC8" si="0">500000000+A4</f>
-        <v>501000002</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1000003</v>
       </c>
@@ -937,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -967,56 +981,29 @@
         <v>100</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
         <f t="shared" si="0"/>
         <v>501000003</v>
       </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2000001</v>
       </c>
@@ -1027,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1057,56 +1044,29 @@
         <v>1500</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
         <f t="shared" si="0"/>
         <v>502000001</v>
       </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3000011</v>
       </c>
@@ -1117,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -1125,9 +1085,6 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1147,56 +1104,29 @@
         <v>1500</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>110001</v>
-      </c>
-      <c r="S7">
-        <v>50</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
         <f t="shared" si="0"/>
         <v>503000011</v>
       </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>110001</v>
+      </c>
+      <c r="R7">
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3000012</v>
       </c>
@@ -1207,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -1215,9 +1145,6 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -1237,53 +1164,26 @@
         <v>1500</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>110002</v>
-      </c>
-      <c r="S8">
-        <v>50</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
         <f t="shared" si="0"/>
         <v>503000012</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>110002</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
